--- a/OnBoard/output/trust/catch/Catch_Trust_62.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_62.xlsx
@@ -1843,7 +1843,7 @@
         <v>0.111</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36">
         <v>14.02978723404255</v>
@@ -2130,7 +2130,7 @@
         <v>0.583</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I43">
         <v>14.02978723404255</v>
@@ -2335,7 +2335,7 @@
         <v>0.199</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I48">
         <v>14.02978723404255</v>
